--- a/data/DSR-table1.xlsx
+++ b/data/DSR-table1.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22695" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DSR-table1" sheetId="1" r:id="rId1"/>
+    <sheet name="DSR-table2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>country</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -854,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,4 +974,257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>19987071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20595360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>37737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>172006362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>80488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>174504898</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>212258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1272915272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>213766</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1280428583</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:B13">
+    <sortCondition ref="A2:A13"/>
+    <sortCondition ref="B2:B13"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>